--- a/Stimuli/stimuli.xlsx
+++ b/Stimuli/stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/projects/CognatePriming/Stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61F399-1A88-6343-98FF-3BDE45FACF2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85A7812-AEB6-724F-81D5-AD3328838654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{50B23307-7EAA-A04A-B04A-4FFB3EAC0B6E}"/>
   </bookViews>
@@ -1698,8 +1698,8 @@
   <dimension ref="A1:S641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Stimuli/stimuli.xlsx
+++ b/Stimuli/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\CognatePriming\Stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\cognate-priming\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0785D1-CDBE-4D02-AC6F-0C17DE19F30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D9FE8-3DD7-4D62-89A0-8494E219406C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-228" yWindow="12852" windowWidth="23256" windowHeight="12720" xr2:uid="{50B23307-7EAA-A04A-B04A-4FFB3EAC0B6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{50B23307-7EAA-A04A-B04A-4FFB3EAC0B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:S641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>

--- a/Stimuli/stimuli.xlsx
+++ b/Stimuli/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\cognate-priming\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D9FE8-3DD7-4D62-89A0-8494E219406C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42BB3D-1DDA-4A01-8C7F-D329B1AC89AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{50B23307-7EAA-A04A-B04A-4FFB3EAC0B6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50B23307-7EAA-A04A-B04A-4FFB3EAC0B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,78 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>gongcastro</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1043D4C4-B8A4-4859-A3C8-EE4BB1A95D58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>gongcastro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Trial identifyer, unique within each list</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D141A1BF-ED5E-4F8F-9935-E7B96A64AAE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>gongcastro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Laboratory in which this trial is presented (Barcelona or Oxford)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{353CAF26-1010-4A06-8DC8-6CF23510668B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>gongcastro:
+Language version in which this trial is presented (Catalan, English, or Spanish)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,7 +1329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1287,6 +1359,25 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1691,29 +1782,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC97A81-C4FA-E140-9273-41DD637B76FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC97A81-C4FA-E140-9273-41DD637B76FD}">
   <dimension ref="A1:S641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I267" sqref="I267"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.796875" style="2"/>
-    <col min="8" max="8" width="10.796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.296875" style="2" customWidth="1"/>
+    <col min="1" max="7" width="10.75" style="2"/>
+    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="16" width="10.796875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.796875" style="2"/>
+    <col min="15" max="16" width="10.75" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>380</v>
       </c>
@@ -1772,7 +1863,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1836,7 +1927,7 @@
         <v>spa_agua</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1900,7 +1991,7 @@
         <v>spa_ensalada</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1964,7 +2055,7 @@
         <v>spa_grifo</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2028,7 +2119,7 @@
         <v>spa_abeja</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2092,7 +2183,7 @@
         <v>spa_merienda</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2156,7 +2247,7 @@
         <v>spa_bici</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2220,7 +2311,7 @@
         <v>spa_boca</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2284,7 +2375,7 @@
         <v>spa_seta</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2348,7 +2439,7 @@
         <v>spa_casa</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2412,7 +2503,7 @@
         <v>spa_paloma</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2476,7 +2567,7 @@
         <v>spa_gusano</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2540,7 +2631,7 @@
         <v>spa_caja</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2604,7 +2695,7 @@
         <v>spa_jamon</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2668,7 +2759,7 @@
         <v>spa_hormiga</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2732,7 +2823,7 @@
         <v>spa_hoja</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2796,7 +2887,7 @@
         <v>spa_tenedor</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2860,7 +2951,7 @@
         <v>spa_galleta</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2924,7 +3015,7 @@
         <v>spa_vaso</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2988,7 +3079,7 @@
         <v>spa_cubo</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3052,7 +3143,7 @@
         <v>spa_globo</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3116,7 +3207,7 @@
         <v>spa_buho</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3180,7 +3271,7 @@
         <v>spa_moneda</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3244,7 +3335,7 @@
         <v>spa_ma</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3308,7 +3399,7 @@
         <v>spa_espejo</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3372,7 +3463,7 @@
         <v>spa_ola</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3436,7 +3527,7 @@
         <v>spa_ojo</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3500,7 +3591,7 @@
         <v>spa_una</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3564,7 +3655,7 @@
         <v>spa_oreja</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3628,7 +3719,7 @@
         <v>spa_mariposa</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3692,7 +3783,7 @@
         <v>spa_planta</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3756,7 +3847,7 @@
         <v>spa_puerta</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3820,7 +3911,7 @@
         <v>spa_cerdo</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -3884,7 +3975,7 @@
         <v>spa_grifo</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -3948,7 +4039,7 @@
         <v>spa_abeja</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -4012,7 +4103,7 @@
         <v>spa_agua</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -4076,7 +4167,7 @@
         <v>spa_ensalada</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -4140,7 +4231,7 @@
         <v>spa_boca</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -4204,7 +4295,7 @@
         <v>spa_seta</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -4268,7 +4359,7 @@
         <v>spa_merienda</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -4332,7 +4423,7 @@
         <v>spa_bici</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>9</v>
       </c>
@@ -4396,7 +4487,7 @@
         <v>spa_gusano</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>10</v>
       </c>
@@ -4460,7 +4551,7 @@
         <v>spa_caja</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>11</v>
       </c>
@@ -4524,7 +4615,7 @@
         <v>spa_casa</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -4588,7 +4679,7 @@
         <v>spa_paloma</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>13</v>
       </c>
@@ -4652,7 +4743,7 @@
         <v>spa_hoja</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>14</v>
       </c>
@@ -4716,7 +4807,7 @@
         <v>spa_tenedor</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>15</v>
       </c>
@@ -4780,7 +4871,7 @@
         <v>spa_jamon</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>16</v>
       </c>
@@ -4844,7 +4935,7 @@
         <v>spa_hormiga</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>17</v>
       </c>
@@ -4908,7 +4999,7 @@
         <v>spa_cubo</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>18</v>
       </c>
@@ -4972,7 +5063,7 @@
         <v>spa_globo</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>19</v>
       </c>
@@ -5036,7 +5127,7 @@
         <v>spa_galleta</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>20</v>
       </c>
@@ -5100,7 +5191,7 @@
         <v>spa_vaso</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>21</v>
       </c>
@@ -5164,7 +5255,7 @@
         <v>spa_mano</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>22</v>
       </c>
@@ -5228,7 +5319,7 @@
         <v>spa_espejo</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>23</v>
       </c>
@@ -5292,7 +5383,7 @@
         <v>spa_buho</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -5356,7 +5447,7 @@
         <v>spa_moneda</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>25</v>
       </c>
@@ -5420,7 +5511,7 @@
         <v>spa_ola</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>26</v>
       </c>
@@ -5484,7 +5575,7 @@
         <v>spa_ojo</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>27</v>
       </c>
@@ -5548,7 +5639,7 @@
         <v>spa_una</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>28</v>
       </c>
@@ -5612,7 +5703,7 @@
         <v>spa_oreja</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>29</v>
       </c>
@@ -5676,7 +5767,7 @@
         <v>spa_puerta</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>30</v>
       </c>
@@ -5740,7 +5831,7 @@
         <v>spa_cerdo</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>31</v>
       </c>
@@ -5804,7 +5895,7 @@
         <v>spa_mariposa</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>32</v>
       </c>
@@ -5868,7 +5959,7 @@
         <v>spa_planta</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -5932,7 +6023,7 @@
         <v>spa_abeja</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -5996,7 +6087,7 @@
         <v>spa_agua</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>3</v>
       </c>
@@ -6060,7 +6151,7 @@
         <v>spa_ensalada</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -6124,7 +6215,7 @@
         <v>spa_grifo</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>5</v>
       </c>
@@ -6188,7 +6279,7 @@
         <v>spa_seta</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>6</v>
       </c>
@@ -6252,7 +6343,7 @@
         <v>spa_merienda</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>7</v>
       </c>
@@ -6316,7 +6407,7 @@
         <v>spa_bici</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>8</v>
       </c>
@@ -6380,7 +6471,7 @@
         <v>spa_boca</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>9</v>
       </c>
@@ -6444,7 +6535,7 @@
         <v>spa_caja</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>10</v>
       </c>
@@ -6508,7 +6599,7 @@
         <v>spa_casa</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>11</v>
       </c>
@@ -6572,7 +6663,7 @@
         <v>spa_paloma</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>12</v>
       </c>
@@ -6636,7 +6727,7 @@
         <v>spa_gusano</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>13</v>
       </c>
@@ -6700,7 +6791,7 @@
         <v>spa_tenedor</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>14</v>
       </c>
@@ -6764,7 +6855,7 @@
         <v>spa_jamon</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -6828,7 +6919,7 @@
         <v>spa_hormiga</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>16</v>
       </c>
@@ -6892,7 +6983,7 @@
         <v>spa_hoja</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>17</v>
       </c>
@@ -6956,7 +7047,7 @@
         <v>spa_globo</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>18</v>
       </c>
@@ -7020,7 +7111,7 @@
         <v>spa_galleta</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>19</v>
       </c>
@@ -7084,7 +7175,7 @@
         <v>spa_vaso</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>20</v>
       </c>
@@ -7148,7 +7239,7 @@
         <v>spa_cubo</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>21</v>
       </c>
@@ -7212,7 +7303,7 @@
         <v>spa_espejo</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>22</v>
       </c>
@@ -7276,7 +7367,7 @@
         <v>spa_buho</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>23</v>
       </c>
@@ -7340,7 +7431,7 @@
         <v>spa_moneda</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>24</v>
       </c>
@@ -7404,7 +7495,7 @@
         <v>spa_mano</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>25</v>
       </c>
@@ -7468,7 +7559,7 @@
         <v>spa_ojo</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>26</v>
       </c>
@@ -7532,7 +7623,7 @@
         <v>spa_una</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>27</v>
       </c>
@@ -7596,7 +7687,7 @@
         <v>spa_oreja</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>28</v>
       </c>
@@ -7660,7 +7751,7 @@
         <v>spa_ola</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>29</v>
       </c>
@@ -7724,7 +7815,7 @@
         <v>spa_cerdo</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>30</v>
       </c>
@@ -7788,7 +7879,7 @@
         <v>spa_mariposa</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>31</v>
       </c>
@@ -7852,7 +7943,7 @@
         <v>spa_planta</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>32</v>
       </c>
@@ -7916,7 +8007,7 @@
         <v>spa_puerta</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -7980,7 +8071,7 @@
         <v>spa_agua</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -8044,7 +8135,7 @@
         <v>spa_ensalada</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -8108,7 +8199,7 @@
         <v>spa_grifo</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -8172,7 +8263,7 @@
         <v>spa_abeja</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>5</v>
       </c>
@@ -8236,7 +8327,7 @@
         <v>spa_merienda</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>6</v>
       </c>
@@ -8300,7 +8391,7 @@
         <v>spa_bici</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>7</v>
       </c>
@@ -8364,7 +8455,7 @@
         <v>spa_boca</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>8</v>
       </c>
@@ -8428,7 +8519,7 @@
         <v>spa_seta</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>9</v>
       </c>
@@ -8492,7 +8583,7 @@
         <v>spa_casa</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>10</v>
       </c>
@@ -8556,7 +8647,7 @@
         <v>spa_paloma</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>11</v>
       </c>
@@ -8620,7 +8711,7 @@
         <v>spa_gusano</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>12</v>
       </c>
@@ -8684,7 +8775,7 @@
         <v>spa_caja</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>13</v>
       </c>
@@ -8748,7 +8839,7 @@
         <v>spa_jamon</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>14</v>
       </c>
@@ -8812,7 +8903,7 @@
         <v>spa_hormiga</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>15</v>
       </c>
@@ -8876,7 +8967,7 @@
         <v>spa_hoja</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>16</v>
       </c>
@@ -8940,7 +9031,7 @@
         <v>spa_tenedor</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>17</v>
       </c>
@@ -9004,7 +9095,7 @@
         <v>spa_galleta</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>18</v>
       </c>
@@ -9068,7 +9159,7 @@
         <v>spa_vaso</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>19</v>
       </c>
@@ -9132,7 +9223,7 @@
         <v>spa_cubo</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>20</v>
       </c>
@@ -9196,7 +9287,7 @@
         <v>spa_globo</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>21</v>
       </c>
@@ -9260,7 +9351,7 @@
         <v>spa_buho</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>22</v>
       </c>
@@ -9324,7 +9415,7 @@
         <v>spa_moneda</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>23</v>
       </c>
@@ -9388,7 +9479,7 @@
         <v>spa_mano</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>24</v>
       </c>
@@ -9452,7 +9543,7 @@
         <v>spa_espejo</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>25</v>
       </c>
@@ -9516,7 +9607,7 @@
         <v>spa_ola</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>26</v>
       </c>
@@ -9580,7 +9671,7 @@
         <v>spa_ojo</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>27</v>
       </c>
@@ -9644,7 +9735,7 @@
         <v>spa_una</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>28</v>
       </c>
@@ -9708,7 +9799,7 @@
         <v>spa_oreja</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>29</v>
       </c>
@@ -9772,7 +9863,7 @@
         <v>spa_mariposa</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>30</v>
       </c>
@@ -9836,7 +9927,7 @@
         <v>spa_planta</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>31</v>
       </c>
@@ -9900,7 +9991,7 @@
         <v>spa_puerta</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>32</v>
       </c>
@@ -9964,7 +10055,7 @@
         <v>spa_cerdo</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -10028,7 +10119,7 @@
         <v>spa_grifo</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -10092,7 +10183,7 @@
         <v>spa_abeja</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>3</v>
       </c>
@@ -10156,7 +10247,7 @@
         <v>spa_agua</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>4</v>
       </c>
@@ -10220,7 +10311,7 @@
         <v>spa_ensalada</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>5</v>
       </c>
@@ -10284,7 +10375,7 @@
         <v>spa_boca</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>6</v>
       </c>
@@ -10348,7 +10439,7 @@
         <v>spa_seta</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>7</v>
       </c>
@@ -10412,7 +10503,7 @@
         <v>spa_merienda</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>8</v>
       </c>
@@ -10476,7 +10567,7 @@
         <v>spa_bici</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>9</v>
       </c>
@@ -10540,7 +10631,7 @@
         <v>spa_gusano</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>10</v>
       </c>
@@ -10604,7 +10695,7 @@
         <v>spa_caja</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>11</v>
       </c>
@@ -10668,7 +10759,7 @@
         <v>spa_casa</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>12</v>
       </c>
@@ -10732,7 +10823,7 @@
         <v>spa_paloma</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>13</v>
       </c>
@@ -10796,7 +10887,7 @@
         <v>spa_hoja</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>14</v>
       </c>
@@ -10860,7 +10951,7 @@
         <v>spa_tenedor</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>15</v>
       </c>
@@ -10924,7 +11015,7 @@
         <v>spa_jamon</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>16</v>
       </c>
@@ -10988,7 +11079,7 @@
         <v>spa_hormiga</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>17</v>
       </c>
@@ -11052,7 +11143,7 @@
         <v>spa_cubo</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>18</v>
       </c>
@@ -11116,7 +11207,7 @@
         <v>spa_globo</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>19</v>
       </c>
@@ -11180,7 +11271,7 @@
         <v>spa_galleta</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>20</v>
       </c>
@@ -11244,7 +11335,7 @@
         <v>spa_vaso</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>21</v>
       </c>
@@ -11308,7 +11399,7 @@
         <v>spa_mano</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>22</v>
       </c>
@@ -11372,7 +11463,7 @@
         <v>spa_espejo</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>23</v>
       </c>
@@ -11436,7 +11527,7 @@
         <v>spa_buho</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>24</v>
       </c>
@@ -11500,7 +11591,7 @@
         <v>spa_moneda</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>25</v>
       </c>
@@ -11564,7 +11655,7 @@
         <v>spa_ola</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>26</v>
       </c>
@@ -11628,7 +11719,7 @@
         <v>spa_ojo</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>27</v>
       </c>
@@ -11692,7 +11783,7 @@
         <v>spa_una</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>28</v>
       </c>
@@ -11756,7 +11847,7 @@
         <v>spa_oreja</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>29</v>
       </c>
@@ -11820,7 +11911,7 @@
         <v>spa_puerta</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>30</v>
       </c>
@@ -11884,7 +11975,7 @@
         <v>spa_cerdo</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>31</v>
       </c>
@@ -11948,7 +12039,7 @@
         <v>spa_mariposa</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>32</v>
       </c>
@@ -12012,7 +12103,7 @@
         <v>spa_planta</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>1</v>
       </c>
@@ -12076,7 +12167,7 @@
         <v>spa_abeja</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>2</v>
       </c>
@@ -12140,7 +12231,7 @@
         <v>spa_agua</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>3</v>
       </c>
@@ -12204,7 +12295,7 @@
         <v>spa_ensalada</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>4</v>
       </c>
@@ -12268,7 +12359,7 @@
         <v>spa_grifo</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>5</v>
       </c>
@@ -12332,7 +12423,7 @@
         <v>spa_seta</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>6</v>
       </c>
@@ -12396,7 +12487,7 @@
         <v>spa_merienda</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -12460,7 +12551,7 @@
         <v>spa_bici</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>8</v>
       </c>
@@ -12524,7 +12615,7 @@
         <v>spa_boca</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>9</v>
       </c>
@@ -12588,7 +12679,7 @@
         <v>spa_caja</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>10</v>
       </c>
@@ -12652,7 +12743,7 @@
         <v>spa_casa</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>11</v>
       </c>
@@ -12716,7 +12807,7 @@
         <v>spa_paloma</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>12</v>
       </c>
@@ -12780,7 +12871,7 @@
         <v>spa_gusano</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>13</v>
       </c>
@@ -12844,7 +12935,7 @@
         <v>spa_tenedor</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>14</v>
       </c>
@@ -12908,7 +12999,7 @@
         <v>spa_jamon</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>15</v>
       </c>
@@ -12972,7 +13063,7 @@
         <v>spa_hormiga</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>16</v>
       </c>
@@ -13036,7 +13127,7 @@
         <v>spa_hoja</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>17</v>
       </c>
@@ -13100,7 +13191,7 @@
         <v>spa_globo</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>18</v>
       </c>
@@ -13164,7 +13255,7 @@
         <v>spa_galleta</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>19</v>
       </c>
@@ -13228,7 +13319,7 @@
         <v>spa_vaso</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>20</v>
       </c>
@@ -13292,7 +13383,7 @@
         <v>spa_cubo</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>21</v>
       </c>
@@ -13356,7 +13447,7 @@
         <v>spa_espejo</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>22</v>
       </c>
@@ -13420,7 +13511,7 @@
         <v>spa_buho</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>23</v>
       </c>
@@ -13484,7 +13575,7 @@
         <v>spa_moneda</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>24</v>
       </c>
@@ -13548,7 +13639,7 @@
         <v>spa_mano</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>25</v>
       </c>
@@ -13612,7 +13703,7 @@
         <v>spa_ojo</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>26</v>
       </c>
@@ -13676,7 +13767,7 @@
         <v>spa_una</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>27</v>
       </c>
@@ -13740,7 +13831,7 @@
         <v>spa_oreja</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>28</v>
       </c>
@@ -13804,7 +13895,7 @@
         <v>spa_ola</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>29</v>
       </c>
@@ -13868,7 +13959,7 @@
         <v>spa_cerdo</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>30</v>
       </c>
@@ -13932,7 +14023,7 @@
         <v>spa_mariposa</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>31</v>
       </c>
@@ -13996,7 +14087,7 @@
         <v>spa_planta</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>32</v>
       </c>
@@ -14060,7 +14151,7 @@
         <v>spa_puerta</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -14124,7 +14215,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>2</v>
       </c>
@@ -14188,7 +14279,7 @@
         <v>cat_bici</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>3</v>
       </c>
@@ -14252,7 +14343,7 @@
         <v>cat_boto</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>4</v>
       </c>
@@ -14316,7 +14407,7 @@
         <v>cat_finestra</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>5</v>
       </c>
@@ -14380,7 +14471,7 @@
         <v>cat_caixa</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>6</v>
       </c>
@@ -14444,7 +14535,7 @@
         <v>cat_cullera</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>7</v>
       </c>
@@ -14508,7 +14599,7 @@
         <v>cat_galleda</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>8</v>
       </c>
@@ -14572,7 +14663,7 @@
         <v>cat_mitjo</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>9</v>
       </c>
@@ -14636,7 +14727,7 @@
         <v>cat_raspall</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>10</v>
       </c>
@@ -14700,7 +14791,7 @@
         <v>cat_cistella</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>11</v>
       </c>
@@ -14764,7 +14855,7 @@
         <v>cat_pastanaga</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>12</v>
       </c>
@@ -14828,7 +14919,7 @@
         <v>cat_cel</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>13</v>
       </c>
@@ -14892,7 +14983,7 @@
         <v>cat_aixeta</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>14</v>
       </c>
@@ -14956,7 +15047,7 @@
         <v>cat_pardal</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>15</v>
       </c>
@@ -15020,7 +15111,7 @@
         <v>cat_cuc</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>16</v>
       </c>
@@ -15084,7 +15175,7 @@
         <v>cat_guitarra</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>17</v>
       </c>
@@ -15148,7 +15239,7 @@
         <v>cat_papallona</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>18</v>
       </c>
@@ -15212,7 +15303,7 @@
         <v>cat_nina</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>19</v>
       </c>
@@ -15276,7 +15367,7 @@
         <v>cat_moneda</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>20</v>
       </c>
@@ -15340,7 +15431,7 @@
         <v>cat_martell</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>21</v>
       </c>
@@ -15404,7 +15495,7 @@
         <v>cat_osset</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>22</v>
       </c>
@@ -15468,7 +15559,7 @@
         <v>cat_formiga</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>23</v>
       </c>
@@ -15532,7 +15623,7 @@
         <v>cat_onada</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>24</v>
       </c>
@@ -15596,7 +15687,7 @@
         <v>cat_melic</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>25</v>
       </c>
@@ -15660,7 +15751,7 @@
         <v>cat_cama</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>26</v>
       </c>
@@ -15724,7 +15815,7 @@
         <v>cat_peu</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>27</v>
       </c>
@@ -15788,7 +15879,7 @@
         <v>cat_platan</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>28</v>
       </c>
@@ -15852,7 +15943,7 @@
         <v>cat_porta</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>29</v>
       </c>
@@ -15916,7 +16007,7 @@
         <v>cat_tisores</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>30</v>
       </c>
@@ -15980,7 +16071,7 @@
         <v>cat_bou</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>31</v>
       </c>
@@ -16044,7 +16135,7 @@
         <v>cat_tambor</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>32</v>
       </c>
@@ -16108,7 +16199,7 @@
         <v>cat_tobogan</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>1</v>
       </c>
@@ -16172,7 +16263,7 @@
         <v>cat_finestra</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>2</v>
       </c>
@@ -16236,7 +16327,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>3</v>
       </c>
@@ -16300,7 +16391,7 @@
         <v>cat_bici</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>4</v>
       </c>
@@ -16364,7 +16455,7 @@
         <v>cat_boto</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -16428,7 +16519,7 @@
         <v>cat_mitjo</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>6</v>
       </c>
@@ -16492,7 +16583,7 @@
         <v>cat_caixa</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>7</v>
       </c>
@@ -16556,7 +16647,7 @@
         <v>cat_cullera</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>8</v>
       </c>
@@ -16620,7 +16711,7 @@
         <v>cat_galleda</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>9</v>
       </c>
@@ -16684,7 +16775,7 @@
         <v>cat_cel</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>10</v>
       </c>
@@ -16748,7 +16839,7 @@
         <v>cat_raspall</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>11</v>
       </c>
@@ -16812,7 +16903,7 @@
         <v>cat_cistella</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>12</v>
       </c>
@@ -16876,7 +16967,7 @@
         <v>cat_pastanaga</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>13</v>
       </c>
@@ -16940,7 +17031,7 @@
         <v>cat_guitarra</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>14</v>
       </c>
@@ -17004,7 +17095,7 @@
         <v>cat_aixeta</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>15</v>
       </c>
@@ -17068,7 +17159,7 @@
         <v>cat_pardal</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>16</v>
       </c>
@@ -17132,7 +17223,7 @@
         <v>cat_cuc</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>17</v>
       </c>
@@ -17196,7 +17287,7 @@
         <v>cat_martell</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>18</v>
       </c>
@@ -17260,7 +17351,7 @@
         <v>cat_papallona</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>19</v>
       </c>
@@ -17324,7 +17415,7 @@
         <v>cat_nina</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>20</v>
       </c>
@@ -17388,7 +17479,7 @@
         <v>cat_moneda</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>21</v>
       </c>
@@ -17452,7 +17543,7 @@
         <v>cat_melic</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>22</v>
       </c>
@@ -17516,7 +17607,7 @@
         <v>cat_osset</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>23</v>
       </c>
@@ -17580,7 +17671,7 @@
         <v>cat_formiga</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>24</v>
       </c>
@@ -17644,7 +17735,7 @@
         <v>cat_onada</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>25</v>
       </c>
@@ -17708,7 +17799,7 @@
         <v>cat_porta</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>26</v>
       </c>
@@ -17772,7 +17863,7 @@
         <v>cat_cama</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>27</v>
       </c>
@@ -17836,7 +17927,7 @@
         <v>cat_peu</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>28</v>
       </c>
@@ -17900,7 +17991,7 @@
         <v>cat_platan</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>29</v>
       </c>
@@ -17964,7 +18055,7 @@
         <v>cat_tobogan</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>30</v>
       </c>
@@ -18028,7 +18119,7 @@
         <v>cat_tisores</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>31</v>
       </c>
@@ -18092,7 +18183,7 @@
         <v>cat_bou</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>32</v>
       </c>
@@ -18156,7 +18247,7 @@
         <v>cat_tambor</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>1</v>
       </c>
@@ -18220,7 +18311,7 @@
         <v>cat_boto</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>2</v>
       </c>
@@ -18284,7 +18375,7 @@
         <v>cat_finestra</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>3</v>
       </c>
@@ -18348,7 +18439,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>4</v>
       </c>
@@ -18412,7 +18503,7 @@
         <v>cat_bici</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>5</v>
       </c>
@@ -18476,7 +18567,7 @@
         <v>cat_galleda</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>6</v>
       </c>
@@ -18540,7 +18631,7 @@
         <v>cat_mitjo</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>7</v>
       </c>
@@ -18604,7 +18695,7 @@
         <v>cat_caixa</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>8</v>
       </c>
@@ -18668,7 +18759,7 @@
         <v>cat_cullera</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>9</v>
       </c>
@@ -18732,7 +18823,7 @@
         <v>cat_pastanaga</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>10</v>
       </c>
@@ -18796,7 +18887,7 @@
         <v>cat_cel</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>11</v>
       </c>
@@ -18860,7 +18951,7 @@
         <v>cat_raspall</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>12</v>
       </c>
@@ -18924,7 +19015,7 @@
         <v>cat_cistella</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>13</v>
       </c>
@@ -18988,7 +19079,7 @@
         <v>cat_cuc</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>14</v>
       </c>
@@ -19052,7 +19143,7 @@
         <v>cat_guitarra</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>15</v>
       </c>
@@ -19116,7 +19207,7 @@
         <v>cat_aixeta</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>16</v>
       </c>
@@ -19180,7 +19271,7 @@
         <v>cat_pardal</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>17</v>
       </c>
@@ -19244,7 +19335,7 @@
         <v>cat_moneda</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>18</v>
       </c>
@@ -19308,7 +19399,7 @@
         <v>cat_martell</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>19</v>
       </c>
@@ -19372,7 +19463,7 @@
         <v>cat_papallona</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>20</v>
       </c>
@@ -19436,7 +19527,7 @@
         <v>cat_nina</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>21</v>
       </c>
@@ -19500,7 +19591,7 @@
         <v>cat_onada</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>22</v>
       </c>
@@ -19564,7 +19655,7 @@
         <v>cat_melic</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>23</v>
       </c>
@@ -19628,7 +19719,7 @@
         <v>cat_osset</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>24</v>
       </c>
@@ -19692,7 +19783,7 @@
         <v>cat_formiga</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>25</v>
       </c>
@@ -19756,7 +19847,7 @@
         <v>cat_platan</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>26</v>
       </c>
@@ -19820,7 +19911,7 @@
         <v>cat_porta</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>27</v>
       </c>
@@ -19884,7 +19975,7 @@
         <v>cat_cama</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>28</v>
       </c>
@@ -19948,7 +20039,7 @@
         <v>cat_peu</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>29</v>
       </c>
@@ -20012,7 +20103,7 @@
         <v>cat_tambor</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>30</v>
       </c>
@@ -20076,7 +20167,7 @@
         <v>cat_tobogan</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>31</v>
       </c>
@@ -20140,7 +20231,7 @@
         <v>cat_tisores</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>32</v>
       </c>
@@ -20204,7 +20295,7 @@
         <v>cat_bou</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>1</v>
       </c>
@@ -20268,7 +20359,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>2</v>
       </c>
@@ -20332,7 +20423,7 @@
         <v>cat_bici</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>3</v>
       </c>
@@ -20396,7 +20487,7 @@
         <v>cat_boto</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>4</v>
       </c>
@@ -20460,7 +20551,7 @@
         <v>cat_finestra</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>5</v>
       </c>
@@ -20524,7 +20615,7 @@
         <v>cat_caixa</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>6</v>
       </c>
@@ -20588,7 +20679,7 @@
         <v>cat_cullera</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>7</v>
       </c>
@@ -20652,7 +20743,7 @@
         <v>cat_galleda</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>8</v>
       </c>
@@ -20716,7 +20807,7 @@
         <v>cat_mitjo</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>9</v>
       </c>
@@ -20780,7 +20871,7 @@
         <v>cat_raspall</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>10</v>
       </c>
@@ -20844,7 +20935,7 @@
         <v>cat_cistella</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>11</v>
       </c>
@@ -20908,7 +20999,7 @@
         <v>cat_pastanaga</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>12</v>
       </c>
@@ -20972,7 +21063,7 @@
         <v>cat_cel</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>13</v>
       </c>
@@ -21036,7 +21127,7 @@
         <v>cat_aixeta</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>14</v>
       </c>
@@ -21100,7 +21191,7 @@
         <v>cat_pardal</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>15</v>
       </c>
@@ -21164,7 +21255,7 @@
         <v>cat_cuc</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>16</v>
       </c>
@@ -21228,7 +21319,7 @@
         <v>cat_guitarra</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>17</v>
       </c>
@@ -21292,7 +21383,7 @@
         <v>cat_papallona</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>18</v>
       </c>
@@ -21356,7 +21447,7 @@
         <v>cat_nina</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>19</v>
       </c>
@@ -21420,7 +21511,7 @@
         <v>cat_moneda</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>20</v>
       </c>
@@ -21484,7 +21575,7 @@
         <v>cat_martell</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>21</v>
       </c>
@@ -21548,7 +21639,7 @@
         <v>cat_osset</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>22</v>
       </c>
@@ -21612,7 +21703,7 @@
         <v>cat_formiga</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>23</v>
       </c>
@@ -21676,7 +21767,7 @@
         <v>cat_onada</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>24</v>
       </c>
@@ -21740,7 +21831,7 @@
         <v>cat_melic</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>25</v>
       </c>
@@ -21804,7 +21895,7 @@
         <v>cat_cama</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>26</v>
       </c>
@@ -21868,7 +21959,7 @@
         <v>cat_peu</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>27</v>
       </c>
@@ -21932,7 +22023,7 @@
         <v>cat_platan</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>28</v>
       </c>
@@ -21996,7 +22087,7 @@
         <v>cat_porta</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>29</v>
       </c>
@@ -22060,7 +22151,7 @@
         <v>cat_tisores</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>30</v>
       </c>
@@ -22124,7 +22215,7 @@
         <v>cat_bou</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>31</v>
       </c>
@@ -22188,7 +22279,7 @@
         <v>cat_tambor</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>32</v>
       </c>
@@ -22252,7 +22343,7 @@
         <v>cat_tobogan</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>1</v>
       </c>
@@ -22316,7 +22407,7 @@
         <v>cat_finestra</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>2</v>
       </c>
@@ -22380,7 +22471,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>3</v>
       </c>
@@ -22444,7 +22535,7 @@
         <v>cat_bici</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>4</v>
       </c>
@@ -22508,7 +22599,7 @@
         <v>cat_boto</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>5</v>
       </c>
@@ -22572,7 +22663,7 @@
         <v>cat_mitjo</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>6</v>
       </c>
@@ -22636,7 +22727,7 @@
         <v>cat_caixa</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>7</v>
       </c>
@@ -22700,7 +22791,7 @@
         <v>cat_cullera</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>8</v>
       </c>
@@ -22764,7 +22855,7 @@
         <v>cat_galleda</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>9</v>
       </c>
@@ -22828,7 +22919,7 @@
         <v>cat_cel</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>10</v>
       </c>
@@ -22892,7 +22983,7 @@
         <v>cat_raspall</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>11</v>
       </c>
@@ -22956,7 +23047,7 @@
         <v>cat_cistella</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>12</v>
       </c>
@@ -23020,7 +23111,7 @@
         <v>cat_pastanaga</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>13</v>
       </c>
@@ -23084,7 +23175,7 @@
         <v>cat_guitarra</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>14</v>
       </c>
@@ -23148,7 +23239,7 @@
         <v>cat_aixeta</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>15</v>
       </c>
@@ -23212,7 +23303,7 @@
         <v>cat_pardal</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>16</v>
       </c>
@@ -23276,7 +23367,7 @@
         <v>cat_cuc</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>17</v>
       </c>
@@ -23340,7 +23431,7 @@
         <v>cat_martell</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>18</v>
       </c>
@@ -23404,7 +23495,7 @@
         <v>cat_papallona</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>19</v>
       </c>
@@ -23468,7 +23559,7 @@
         <v>cat_nina</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>20</v>
       </c>
@@ -23532,7 +23623,7 @@
         <v>cat_moneda</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>21</v>
       </c>
@@ -23596,7 +23687,7 @@
         <v>cat_melic</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>22</v>
       </c>
@@ -23660,7 +23751,7 @@
         <v>cat_osset</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>23</v>
       </c>
@@ -23724,7 +23815,7 @@
         <v>cat_formiga</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>24</v>
       </c>
@@ -23788,7 +23879,7 @@
         <v>cat_onada</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>25</v>
       </c>
@@ -23852,7 +23943,7 @@
         <v>cat_porta</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>26</v>
       </c>
@@ -23916,7 +24007,7 @@
         <v>cat_cama</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>27</v>
       </c>
@@ -23980,7 +24071,7 @@
         <v>cat_peu</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>28</v>
       </c>
@@ -24044,7 +24135,7 @@
         <v>cat_platan</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>29</v>
       </c>
@@ -24108,7 +24199,7 @@
         <v>cat_tobogan</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>30</v>
       </c>
@@ -24172,7 +24263,7 @@
         <v>cat_tisores</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>31</v>
       </c>
@@ -24236,7 +24327,7 @@
         <v>cat_bou</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>32</v>
       </c>
@@ -24300,7 +24391,7 @@
         <v>cat_tambor</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>1</v>
       </c>
@@ -24364,7 +24455,7 @@
         <v>cat_boto</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>2</v>
       </c>
@@ -24428,7 +24519,7 @@
         <v>cat_finestra</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>3</v>
       </c>
@@ -24492,7 +24583,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>4</v>
       </c>
@@ -24556,7 +24647,7 @@
         <v>cat_bici</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>5</v>
       </c>
@@ -24620,7 +24711,7 @@
         <v>cat_galleda</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>6</v>
       </c>
@@ -24684,7 +24775,7 @@
         <v>cat_mitjo</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>7</v>
       </c>
@@ -24748,7 +24839,7 @@
         <v>cat_caixa</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>8</v>
       </c>
@@ -24812,7 +24903,7 @@
         <v>cat_cullera</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>9</v>
       </c>
@@ -24876,7 +24967,7 @@
         <v>cat_pastanaga</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>10</v>
       </c>
@@ -24940,7 +25031,7 @@
         <v>cat_cel</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>11</v>
       </c>
@@ -25004,7 +25095,7 @@
         <v>cat_raspall</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>12</v>
       </c>
@@ -25068,7 +25159,7 @@
         <v>cat_cistella</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>13</v>
       </c>
@@ -25132,7 +25223,7 @@
         <v>cat_cuc</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>14</v>
       </c>
@@ -25196,7 +25287,7 @@
         <v>cat_guitarra</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>15</v>
       </c>
@@ -25260,7 +25351,7 @@
         <v>cat_aixeta</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>16</v>
       </c>
@@ -25324,7 +25415,7 @@
         <v>cat_pardal</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>17</v>
       </c>
@@ -25388,7 +25479,7 @@
         <v>cat_moneda</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>18</v>
       </c>
@@ -25452,7 +25543,7 @@
         <v>cat_martell</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>19</v>
       </c>
@@ -25516,7 +25607,7 @@
         <v>cat_papallona</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>20</v>
       </c>
@@ -25580,7 +25671,7 @@
         <v>cat_nina</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>21</v>
       </c>
@@ -25644,7 +25735,7 @@
         <v>cat_onada</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>22</v>
       </c>
@@ -25708,7 +25799,7 @@
         <v>cat_melic</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>23</v>
       </c>
@@ -25772,7 +25863,7 @@
         <v>cat_osset</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>24</v>
       </c>
@@ -25836,7 +25927,7 @@
         <v>cat_formiga</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>25</v>
       </c>
@@ -25900,7 +25991,7 @@
         <v>cat_platan</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>26</v>
       </c>
@@ -25964,7 +26055,7 @@
         <v>cat_porta</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>27</v>
       </c>
@@ -26028,7 +26119,7 @@
         <v>cat_cama</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>28</v>
       </c>
@@ -26092,7 +26183,7 @@
         <v>cat_peu</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>29</v>
       </c>
@@ -26156,7 +26247,7 @@
         <v>cat_tambor</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>30</v>
       </c>
@@ -26220,7 +26311,7 @@
         <v>cat_tobogan</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>31</v>
       </c>
@@ -26284,7 +26375,7 @@
         <v>cat_tisores</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>32</v>
       </c>
@@ -26348,7 +26439,7 @@
         <v>cat_bou</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>1</v>
       </c>
@@ -26410,7 +26501,7 @@
         <v>cat_pajaro</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>2</v>
       </c>
@@ -26472,7 +26563,7 @@
         <v>cat_pelota</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>3</v>
       </c>
@@ -26534,7 +26625,7 @@
         <v>cat_globo</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>4</v>
       </c>
@@ -26596,7 +26687,7 @@
         <v>cat_coneja</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>5</v>
       </c>
@@ -26658,7 +26749,7 @@
         <v>cat_galleta</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>6</v>
       </c>
@@ -26720,7 +26811,7 @@
         <v>cat_cubo</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>7</v>
       </c>
@@ -26782,7 +26873,7 @@
         <v>cat_caja</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>8</v>
       </c>
@@ -26844,7 +26935,7 @@
         <v>cat_pan</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>9</v>
       </c>
@@ -26906,7 +26997,7 @@
         <v>cat_silla</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>10</v>
       </c>
@@ -26968,7 +27059,7 @@
         <v>cat_queso</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>11</v>
       </c>
@@ -27030,7 +27121,7 @@
         <v>cat_patatas fritas?</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>12</v>
       </c>
@@ -27092,7 +27183,7 @@
         <v>cat_silla</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>13</v>
       </c>
@@ -27154,7 +27245,7 @@
         <v>cat_rana</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>14</v>
       </c>
@@ -27216,7 +27307,7 @@
         <v>cat_tenedor</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>15</v>
       </c>
@@ -27278,7 +27369,7 @@
         <v>cat_pez</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>16</v>
       </c>
@@ -27340,7 +27431,7 @@
         <v>cat_telefono</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>17</v>
       </c>
@@ -27402,7 +27493,7 @@
         <v>cat_ratón</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>18</v>
       </c>
@@ -27464,7 +27555,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>19</v>
       </c>
@@ -27526,7 +27617,7 @@
         <v>cat_leche</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>20</v>
       </c>
@@ -27588,7 +27679,7 @@
         <v>cat_ratón</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>21</v>
       </c>
@@ -27650,7 +27741,7 @@
         <v>cat_lapiz</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>22</v>
       </c>
@@ -27712,7 +27803,7 @@
         <v>cat_loro</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>23</v>
       </c>
@@ -27774,7 +27865,7 @@
         <v>cat_avion</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>24</v>
       </c>
@@ -27836,7 +27927,7 @@
         <v>cat_guisante</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>25</v>
       </c>
@@ -27898,7 +27989,7 @@
         <v>cat_caracol</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>26</v>
       </c>
@@ -27960,7 +28051,7 @@
         <v>cat_cuchara</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>27</v>
       </c>
@@ -28022,7 +28113,7 @@
         <v>cat_calcetín</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>28</v>
       </c>
@@ -28084,7 +28175,7 @@
         <v>cat_bocadillo</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>29</v>
       </c>
@@ -28146,7 +28237,7 @@
         <v>cat_osito</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>30</v>
       </c>
@@ -28208,7 +28299,7 @@
         <v>cat_mesa</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>31</v>
       </c>
@@ -28270,7 +28361,7 @@
         <v>cat_pantalon</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>32</v>
       </c>
@@ -28332,7 +28423,7 @@
         <v>cat_camion</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>1</v>
       </c>
@@ -28394,7 +28485,7 @@
         <v>cat_pelota</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>2</v>
       </c>
@@ -28456,7 +28547,7 @@
         <v>cat_globo</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>3</v>
       </c>
@@ -28518,7 +28609,7 @@
         <v>cat_coneja</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>4</v>
       </c>
@@ -28580,7 +28671,7 @@
         <v>cat_pajaro</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>5</v>
       </c>
@@ -28642,7 +28733,7 @@
         <v>cat_cubo</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>6</v>
       </c>
@@ -28704,7 +28795,7 @@
         <v>cat_caja</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>7</v>
       </c>
@@ -28766,7 +28857,7 @@
         <v>cat_pan</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>8</v>
       </c>
@@ -28828,7 +28919,7 @@
         <v>cat_galleta</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>9</v>
       </c>
@@ -28890,7 +28981,7 @@
         <v>cat_queso</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>10</v>
       </c>
@@ -28952,7 +29043,7 @@
         <v>cat_patatas fritas?</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>11</v>
       </c>
@@ -29014,7 +29105,7 @@
         <v>cat_silla</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>12</v>
       </c>
@@ -29076,7 +29167,7 @@
         <v>cat_queso</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>13</v>
       </c>
@@ -29138,7 +29229,7 @@
         <v>cat_tenedor</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>14</v>
       </c>
@@ -29200,7 +29291,7 @@
         <v>cat_pez</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>15</v>
       </c>
@@ -29262,7 +29353,7 @@
         <v>cat_telefono</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>16</v>
       </c>
@@ -29324,7 +29415,7 @@
         <v>cat_rana</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>17</v>
       </c>
@@ -29386,7 +29477,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>18</v>
       </c>
@@ -29448,7 +29539,7 @@
         <v>cat_leche</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>19</v>
       </c>
@@ -29510,7 +29601,7 @@
         <v>cat_ratón</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>20</v>
       </c>
@@ -29572,7 +29663,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>21</v>
       </c>
@@ -29634,7 +29725,7 @@
         <v>cat_loro</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>22</v>
       </c>
@@ -29696,7 +29787,7 @@
         <v>cat_avion</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>23</v>
       </c>
@@ -29758,7 +29849,7 @@
         <v>cat_guisante</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>24</v>
       </c>
@@ -29820,7 +29911,7 @@
         <v>cat_lapiz</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>25</v>
       </c>
@@ -29882,7 +29973,7 @@
         <v>cat_cuchara</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>26</v>
       </c>
@@ -29944,7 +30035,7 @@
         <v>cat_calcetín</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>27</v>
       </c>
@@ -30006,7 +30097,7 @@
         <v>cat_bocadillo</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>28</v>
       </c>
@@ -30068,7 +30159,7 @@
         <v>cat_caracol</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>29</v>
       </c>
@@ -30130,7 +30221,7 @@
         <v>cat_mesa</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>30</v>
       </c>
@@ -30192,7 +30283,7 @@
         <v>cat_pantalon</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>31</v>
       </c>
@@ -30254,7 +30345,7 @@
         <v>cat_camion</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>32</v>
       </c>
@@ -30316,7 +30407,7 @@
         <v>cat_osito</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>1</v>
       </c>
@@ -30378,7 +30469,7 @@
         <v>cat_globo</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>2</v>
       </c>
@@ -30440,7 +30531,7 @@
         <v>cat_coneja</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>3</v>
       </c>
@@ -30502,7 +30593,7 @@
         <v>cat_pajaro</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>4</v>
       </c>
@@ -30564,7 +30655,7 @@
         <v>cat_pelota</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>5</v>
       </c>
@@ -30626,7 +30717,7 @@
         <v>cat_caja</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>6</v>
       </c>
@@ -30688,7 +30779,7 @@
         <v>cat_pan</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>7</v>
       </c>
@@ -30750,7 +30841,7 @@
         <v>cat_galleta</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>8</v>
       </c>
@@ -30812,7 +30903,7 @@
         <v>cat_cubo</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>9</v>
       </c>
@@ -30874,7 +30965,7 @@
         <v>cat_patatas fritas?</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>10</v>
       </c>
@@ -30936,7 +31027,7 @@
         <v>cat_silla</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>11</v>
       </c>
@@ -30998,7 +31089,7 @@
         <v>cat_queso</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>12</v>
       </c>
@@ -31060,7 +31151,7 @@
         <v>cat_patatas fritas?</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>13</v>
       </c>
@@ -31122,7 +31213,7 @@
         <v>cat_pez</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>14</v>
       </c>
@@ -31184,7 +31275,7 @@
         <v>cat_telefono</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>15</v>
       </c>
@@ -31246,7 +31337,7 @@
         <v>cat_rana</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>16</v>
       </c>
@@ -31308,7 +31399,7 @@
         <v>cat_tenedor</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>17</v>
       </c>
@@ -31370,7 +31461,7 @@
         <v>cat_leche</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>18</v>
       </c>
@@ -31432,7 +31523,7 @@
         <v>cat_ratón</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>19</v>
       </c>
@@ -31494,7 +31585,7 @@
         <v>cat_boca</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>20</v>
       </c>
@@ -31556,7 +31647,7 @@
         <v>cat_leche</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>21</v>
       </c>
@@ -31618,7 +31709,7 @@
         <v>cat_avion</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>22</v>
       </c>
@@ -31680,7 +31771,7 @@
         <v>cat_guisante</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>23</v>
       </c>
@@ -31742,7 +31833,7 @@
         <v>cat_lapiz</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>24</v>
       </c>
@@ -31804,7 +31895,7 @@
         <v>cat_loro</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>25</v>
       </c>
@@ -31866,7 +31957,7 @@
         <v>cat_calcetín</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>26</v>
       </c>
@@ -31928,7 +32019,7 @@
         <v>cat_bocadillo</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>27</v>
       </c>
@@ -31990,7 +32081,7 @@
         <v>cat_caracol</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>28</v>
       </c>
@@ -32052,7 +32143,7 @@
         <v>cat_cuchara</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>29</v>
       </c>
@@ -32114,7 +32205,7 @@
         <v>cat_pantalon</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>30</v>
       </c>
@@ -32176,7 +32267,7 @@
         <v>cat_camion</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>31</v>
       </c>
@@ -32238,7 +32329,7 @@
         <v>cat_osito</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>32</v>
       </c>
@@ -32300,7 +32391,7 @@
         <v>cat_mesa</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>1</v>
       </c>
@@ -32362,7 +32453,7 @@
         <v>cat_coneja</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>2</v>
       </c>
@@ -32424,7 +32515,7 @@
         <v>cat_pajaro</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>3</v>
       </c>
@@ -32486,7 +32577,7 @@
         <v>cat_pelota</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>4</v>
       </c>
@@ -32548,7 +32639,7 @@
         <v>cat_globo</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>5</v>
       </c>
@@ -32610,7 +32701,7 @@
         <v>cat_pan</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>6</v>
       </c>
@@ -32672,7 +32763,7 @@
         <v>cat_galleta</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>7</v>
       </c>
@@ -32734,7 +32825,7 @@
         <v>cat_cubo</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>8</v>
       </c>
@@ -32796,7 +32887,7 @@
         <v>cat_caja</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>9</v>
       </c>
@@ -32858,7 +32949,7 @@
         <v>cat_zapato</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>10</v>
       </c>
@@ -32920,7 +33011,7 @@
         <v>cat_zapato</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>11</v>
       </c>
@@ -32982,7 +33073,7 @@
         <v>cat_zapato</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>12</v>
       </c>
@@ -33044,7 +33135,7 @@
         <v>cat_zapato</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>13</v>
       </c>
@@ -33106,7 +33197,7 @@
         <v>cat_telefono</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>14</v>
       </c>
@@ -33168,7 +33259,7 @@
         <v>cat_rana</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
         <v>15</v>
       </c>
@@ -33230,7 +33321,7 @@
         <v>cat_tenedor</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>16</v>
       </c>
@@ -33292,7 +33383,7 @@
         <v>cat_pez</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>17</v>
       </c>
@@ -33354,7 +33445,7 @@
         <v>cat_pañal</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>18</v>
       </c>
@@ -33416,7 +33507,7 @@
         <v>cat_pañal</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>19</v>
       </c>
@@ -33478,7 +33569,7 @@
         <v>cat_pañal</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>20</v>
       </c>
@@ -33540,7 +33631,7 @@
         <v>cat_pañal</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>21</v>
       </c>
@@ -33602,7 +33693,7 @@
         <v>cat_guisante</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>22</v>
       </c>
@@ -33664,7 +33755,7 @@
         <v>cat_lapiz</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>23</v>
       </c>
@@ -33726,7 +33817,7 @@
         <v>cat_loro</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>24</v>
       </c>
@@ -33788,7 +33879,7 @@
         <v>cat_avion</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>25</v>
       </c>
@@ -33850,7 +33941,7 @@
         <v>cat_bocadillo</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="3">
         <v>26</v>
       </c>
@@ -33912,7 +34003,7 @@
         <v>cat_caracol</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="3">
         <v>27</v>
       </c>
@@ -33974,7 +34065,7 @@
         <v>cat_cuchara</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>28</v>
       </c>
@@ -34036,7 +34127,7 @@
         <v>cat_calcetín</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>29</v>
       </c>
@@ -34098,7 +34189,7 @@
         <v>cat_camion</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>30</v>
       </c>
@@ -34160,7 +34251,7 @@
         <v>cat_osito</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
         <v>31</v>
       </c>
@@ -34222,7 +34313,7 @@
         <v>cat_mesa</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="3">
         <v>32</v>
       </c>
@@ -34284,7 +34375,7 @@
         <v>cat_pantalon</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>1</v>
       </c>
@@ -34346,7 +34437,7 @@
         <v>cat_donkey</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>2</v>
       </c>
@@ -34408,7 +34499,7 @@
         <v>cat_pen</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
         <v>3</v>
       </c>
@@ -34470,7 +34561,7 @@
         <v>cat_arm</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>4</v>
       </c>
@@ -34532,7 +34623,7 @@
         <v>cat_owl</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
         <v>5</v>
       </c>
@@ -34594,7 +34685,7 @@
         <v>cat_spoon</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>6</v>
       </c>
@@ -34656,7 +34747,7 @@
         <v>cat_snail</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="3">
         <v>7</v>
       </c>
@@ -34718,7 +34809,7 @@
         <v>cat_sock</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="3">
         <v>8</v>
       </c>
@@ -34780,7 +34871,7 @@
         <v>cat_bucket</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="3">
         <v>9</v>
       </c>
@@ -34842,7 +34933,7 @@
         <v>cat_worm</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>10</v>
       </c>
@@ -34904,7 +34995,7 @@
         <v>cat_balloon</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="3">
         <v>11</v>
       </c>
@@ -34966,7 +35057,7 @@
         <v>cat_chicken</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="3">
         <v>12</v>
       </c>
@@ -35028,7 +35119,7 @@
         <v>cat_biscuit</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
         <v>13</v>
       </c>
@@ -35090,7 +35181,7 @@
         <v>cat_milk</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="3">
         <v>14</v>
       </c>
@@ -35152,7 +35243,7 @@
         <v>cat_pencil</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
         <v>15</v>
       </c>
@@ -35214,7 +35305,7 @@
         <v>cat_tongue</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>16</v>
       </c>
@@ -35276,7 +35367,7 @@
         <v>cat_block/brick</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" s="3">
         <v>17</v>
       </c>
@@ -35338,7 +35429,7 @@
         <v>cat_apple</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" s="3">
         <v>18</v>
       </c>
@@ -35400,7 +35491,7 @@
         <v>cat_hand</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" s="3">
         <v>19</v>
       </c>
@@ -35462,7 +35553,7 @@
         <v>cat_doll</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>20</v>
       </c>
@@ -35524,7 +35615,7 @@
         <v>cat_table</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" s="3">
         <v>21</v>
       </c>
@@ -35586,7 +35677,7 @@
         <v>cat_duck</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" s="3">
         <v>22</v>
       </c>
@@ -35648,7 +35739,7 @@
         <v>cat_dog</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536" s="3">
         <v>23</v>
       </c>
@@ -35710,7 +35801,7 @@
         <v>cat_bird</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" s="3">
         <v>24</v>
       </c>
@@ -35772,7 +35863,7 @@
         <v>cat_fish</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538" s="3">
         <v>25</v>
       </c>
@@ -35834,7 +35925,7 @@
         <v>cat_ball</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" s="3">
         <v>26</v>
       </c>
@@ -35896,7 +35987,7 @@
         <v>cat_door</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" s="3">
         <v>27</v>
       </c>
@@ -35958,7 +36049,7 @@
         <v>cat_cake</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>28</v>
       </c>
@@ -36020,7 +36111,7 @@
         <v>cat_trousers</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542" s="3">
         <v>29</v>
       </c>
@@ -36082,7 +36173,7 @@
         <v>cat_scissors</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543" s="3">
         <v>30</v>
       </c>
@@ -36144,7 +36235,7 @@
         <v>cat_drum</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544" s="3">
         <v>31</v>
       </c>
@@ -36206,7 +36297,7 @@
         <v>cat_slide</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>32</v>
       </c>
@@ -36268,7 +36359,7 @@
         <v>cat_fork</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A546" s="3">
         <v>1</v>
       </c>
@@ -36330,7 +36421,7 @@
         <v>cat_pen</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547" s="3">
         <v>2</v>
       </c>
@@ -36392,7 +36483,7 @@
         <v>cat_arm</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548" s="3">
         <v>3</v>
       </c>
@@ -36454,7 +36545,7 @@
         <v>cat_owl</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>4</v>
       </c>
@@ -36516,7 +36607,7 @@
         <v>cat_donkey</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550" s="3">
         <v>5</v>
       </c>
@@ -36578,7 +36669,7 @@
         <v>cat_snail</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551" s="3">
         <v>6</v>
       </c>
@@ -36640,7 +36731,7 @@
         <v>cat_sock</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552" s="3">
         <v>7</v>
       </c>
@@ -36702,7 +36793,7 @@
         <v>cat_bucket</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" s="3">
         <v>8</v>
       </c>
@@ -36764,7 +36855,7 @@
         <v>cat_spoon</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" s="3">
         <v>9</v>
       </c>
@@ -36826,7 +36917,7 @@
         <v>cat_balloon</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" s="3">
         <v>10</v>
       </c>
@@ -36888,7 +36979,7 @@
         <v>cat_chicken</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" s="3">
         <v>11</v>
       </c>
@@ -36950,7 +37041,7 @@
         <v>cat_biscuit</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>12</v>
       </c>
@@ -37012,7 +37103,7 @@
         <v>cat_worm</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558" s="3">
         <v>13</v>
       </c>
@@ -37074,7 +37165,7 @@
         <v>cat_pencil</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559" s="3">
         <v>14</v>
       </c>
@@ -37136,7 +37227,7 @@
         <v>cat_tongue</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560" s="3">
         <v>15</v>
       </c>
@@ -37198,7 +37289,7 @@
         <v>cat_block/brick</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>16</v>
       </c>
@@ -37260,7 +37351,7 @@
         <v>cat_milk</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" s="3">
         <v>17</v>
       </c>
@@ -37322,7 +37413,7 @@
         <v>cat_hand</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" s="3">
         <v>18</v>
       </c>
@@ -37384,7 +37475,7 @@
         <v>cat_doll</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564" s="3">
         <v>19</v>
       </c>
@@ -37446,7 +37537,7 @@
         <v>cat_table</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" s="3">
         <v>20</v>
       </c>
@@ -37508,7 +37599,7 @@
         <v>cat_apple</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" s="3">
         <v>21</v>
       </c>
@@ -37570,7 +37661,7 @@
         <v>cat_dog</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567" s="3">
         <v>22</v>
       </c>
@@ -37632,7 +37723,7 @@
         <v>cat_bird</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" s="3">
         <v>23</v>
       </c>
@@ -37694,7 +37785,7 @@
         <v>cat_fish</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" s="3">
         <v>24</v>
       </c>
@@ -37756,7 +37847,7 @@
         <v>cat_duck</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" s="3">
         <v>25</v>
       </c>
@@ -37818,7 +37909,7 @@
         <v>cat_door</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" s="3">
         <v>26</v>
       </c>
@@ -37880,7 +37971,7 @@
         <v>cat_cake</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" s="3">
         <v>27</v>
       </c>
@@ -37942,7 +38033,7 @@
         <v>cat_trousers</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A573" s="3">
         <v>28</v>
       </c>
@@ -38004,7 +38095,7 @@
         <v>cat_ball</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A574" s="3">
         <v>29</v>
       </c>
@@ -38066,7 +38157,7 @@
         <v>cat_drum</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A575" s="3">
         <v>30</v>
       </c>
@@ -38128,7 +38219,7 @@
         <v>cat_slide</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A576" s="3">
         <v>31</v>
       </c>
@@ -38190,7 +38281,7 @@
         <v>cat_fork</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A577" s="3">
         <v>32</v>
       </c>
@@ -38252,7 +38343,7 @@
         <v>cat_scissors</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A578" s="3">
         <v>1</v>
       </c>
@@ -38314,7 +38405,7 @@
         <v>cat_arm</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A579" s="3">
         <v>2</v>
       </c>
@@ -38376,7 +38467,7 @@
         <v>cat_owl</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A580" s="3">
         <v>3</v>
       </c>
@@ -38438,7 +38529,7 @@
         <v>cat_donkey</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A581" s="3">
         <v>4</v>
       </c>
@@ -38500,7 +38591,7 @@
         <v>cat_pen</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A582" s="3">
         <v>5</v>
       </c>
@@ -38562,7 +38653,7 @@
         <v>cat_sock</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A583" s="3">
         <v>6</v>
       </c>
@@ -38624,7 +38715,7 @@
         <v>cat_bucket</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A584" s="3">
         <v>7</v>
       </c>
@@ -38686,7 +38777,7 @@
         <v>cat_spoon</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A585" s="3">
         <v>8</v>
       </c>
@@ -38748,7 +38839,7 @@
         <v>cat_snail</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A586" s="3">
         <v>9</v>
       </c>
@@ -38810,7 +38901,7 @@
         <v>cat_chicken</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A587" s="3">
         <v>10</v>
       </c>
@@ -38872,7 +38963,7 @@
         <v>cat_biscuit</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A588" s="3">
         <v>11</v>
       </c>
@@ -38934,7 +39025,7 @@
         <v>cat_worm</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A589" s="3">
         <v>12</v>
       </c>
@@ -38996,7 +39087,7 @@
         <v>cat_balloon</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A590" s="3">
         <v>13</v>
       </c>
@@ -39058,7 +39149,7 @@
         <v>cat_tongue</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A591" s="3">
         <v>14</v>
       </c>
@@ -39120,7 +39211,7 @@
         <v>cat_block/brick</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A592" s="3">
         <v>15</v>
       </c>
@@ -39182,7 +39273,7 @@
         <v>cat_milk</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="3">
         <v>16</v>
       </c>
@@ -39244,7 +39335,7 @@
         <v>cat_pencil</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>17</v>
       </c>
@@ -39306,7 +39397,7 @@
         <v>cat_doll</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>18</v>
       </c>
@@ -39368,7 +39459,7 @@
         <v>cat_table</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="3">
         <v>19</v>
       </c>
@@ -39430,7 +39521,7 @@
         <v>cat_apple</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
         <v>20</v>
       </c>
@@ -39492,7 +39583,7 @@
         <v>cat_hand</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="3">
         <v>21</v>
       </c>
@@ -39554,7 +39645,7 @@
         <v>cat_bird</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
         <v>22</v>
       </c>
@@ -39616,7 +39707,7 @@
         <v>cat_fish</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="3">
         <v>23</v>
       </c>
@@ -39678,7 +39769,7 @@
         <v>cat_duck</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="3">
         <v>24</v>
       </c>
@@ -39740,7 +39831,7 @@
         <v>cat_dog</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="3">
         <v>25</v>
       </c>
@@ -39802,7 +39893,7 @@
         <v>cat_cake</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="3">
         <v>26</v>
       </c>
@@ -39864,7 +39955,7 @@
         <v>cat_trousers</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>27</v>
       </c>
@@ -39926,7 +40017,7 @@
         <v>cat_ball</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>28</v>
       </c>
@@ -39988,7 +40079,7 @@
         <v>cat_door</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="3">
         <v>29</v>
       </c>
@@ -40050,7 +40141,7 @@
         <v>cat_slide</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="3">
         <v>30</v>
       </c>
@@ -40112,7 +40203,7 @@
         <v>cat_fork</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="3">
         <v>31</v>
       </c>
@@ -40174,7 +40265,7 @@
         <v>cat_scissors</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>32</v>
       </c>
@@ -40236,7 +40327,7 @@
         <v>cat_drum</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A610" s="3">
         <v>1</v>
       </c>
@@ -40298,7 +40389,7 @@
         <v>cat_owl</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A611" s="3">
         <v>2</v>
       </c>
@@ -40360,7 +40451,7 @@
         <v>cat_donkey</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A612" s="3">
         <v>3</v>
       </c>
@@ -40422,7 +40513,7 @@
         <v>cat_pen</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A613" s="3">
         <v>4</v>
       </c>
@@ -40484,7 +40575,7 @@
         <v>cat_arm</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A614" s="3">
         <v>5</v>
       </c>
@@ -40546,7 +40637,7 @@
         <v>cat_bucket</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A615" s="3">
         <v>6</v>
       </c>
@@ -40608,7 +40699,7 @@
         <v>cat_spoon</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A616" s="3">
         <v>7</v>
       </c>
@@ -40670,7 +40761,7 @@
         <v>cat_snail</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A617" s="3">
         <v>8</v>
       </c>
@@ -40732,7 +40823,7 @@
         <v>cat_sock</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A618" s="3">
         <v>9</v>
       </c>
@@ -40794,7 +40885,7 @@
         <v>cat_biscuit</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A619" s="3">
         <v>10</v>
       </c>
@@ -40856,7 +40947,7 @@
         <v>cat_worm</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A620" s="3">
         <v>11</v>
       </c>
@@ -40918,7 +41009,7 @@
         <v>cat_balloon</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A621" s="3">
         <v>12</v>
       </c>
@@ -40980,7 +41071,7 @@
         <v>cat_chicken</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A622" s="3">
         <v>13</v>
       </c>
@@ -41042,7 +41133,7 @@
         <v>cat_block/brick</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A623" s="3">
         <v>14</v>
       </c>
@@ -41104,7 +41195,7 @@
         <v>cat_milk</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A624" s="3">
         <v>15</v>
       </c>
@@ -41166,7 +41257,7 @@
         <v>cat_pencil</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A625" s="3">
         <v>16</v>
       </c>
@@ -41228,7 +41319,7 @@
         <v>cat_tongue</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A626" s="3">
         <v>17</v>
       </c>
@@ -41290,7 +41381,7 @@
         <v>cat_table</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A627" s="3">
         <v>18</v>
       </c>
@@ -41352,7 +41443,7 @@
         <v>cat_apple</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A628" s="3">
         <v>19</v>
       </c>
@@ -41414,7 +41505,7 @@
         <v>cat_hand</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A629" s="3">
         <v>20</v>
       </c>
@@ -41476,7 +41567,7 @@
         <v>cat_doll</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A630" s="3">
         <v>21</v>
       </c>
@@ -41538,7 +41629,7 @@
         <v>cat_fish</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A631" s="3">
         <v>22</v>
       </c>
@@ -41600,7 +41691,7 @@
         <v>cat_duck</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A632" s="3">
         <v>23</v>
       </c>
@@ -41662,7 +41753,7 @@
         <v>cat_dog</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A633" s="3">
         <v>24</v>
       </c>
@@ -41724,7 +41815,7 @@
         <v>cat_bird</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A634" s="3">
         <v>25</v>
       </c>
@@ -41786,7 +41877,7 @@
         <v>cat_trousers</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A635" s="3">
         <v>26</v>
       </c>
@@ -41848,7 +41939,7 @@
         <v>cat_ball</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A636" s="3">
         <v>27</v>
       </c>
@@ -41910,7 +42001,7 @@
         <v>cat_door</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A637" s="3">
         <v>28</v>
       </c>
@@ -41972,7 +42063,7 @@
         <v>cat_cake</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A638" s="3">
         <v>29</v>
       </c>
@@ -42034,7 +42125,7 @@
         <v>cat_fork</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A639" s="3">
         <v>30</v>
       </c>
@@ -42096,7 +42187,7 @@
         <v>cat_scissors</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A640" s="3">
         <v>31</v>
       </c>
@@ -42158,7 +42249,7 @@
         <v>cat_drum</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A641" s="3">
         <v>32</v>
       </c>
@@ -42247,5 +42338,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>